--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>Cd84</t>
@@ -440,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>142.408683607116</v>
+        <v>0.3383885</v>
       </c>
       <c r="H2">
-        <v>142.408683607116</v>
+        <v>0.676777</v>
       </c>
       <c r="I2">
-        <v>0.5362627119529669</v>
+        <v>0.001226894222865089</v>
       </c>
       <c r="J2">
-        <v>0.5362627119529669</v>
+        <v>0.0008182641230851896</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>142.408683607116</v>
+        <v>0.3383885</v>
       </c>
       <c r="N2">
-        <v>142.408683607116</v>
+        <v>0.676777</v>
       </c>
       <c r="O2">
-        <v>0.5362627119529669</v>
+        <v>0.001226894222865089</v>
       </c>
       <c r="P2">
-        <v>0.5362627119529669</v>
+        <v>0.0008182641230851896</v>
       </c>
       <c r="Q2">
-        <v>20280.23316671167</v>
+        <v>0.11450677693225</v>
       </c>
       <c r="R2">
-        <v>20280.23316671167</v>
+        <v>0.458027107729</v>
       </c>
       <c r="S2">
-        <v>0.2875776962311508</v>
+        <v>1.505269434099731E-06</v>
       </c>
       <c r="T2">
-        <v>0.2875776962311508</v>
+        <v>6.695561751283743E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -575,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -587,173 +596,1475 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>142.408683607116</v>
+        <v>0.3383885</v>
       </c>
       <c r="H3">
-        <v>142.408683607116</v>
+        <v>0.676777</v>
       </c>
       <c r="I3">
-        <v>0.5362627119529669</v>
+        <v>0.001226894222865089</v>
       </c>
       <c r="J3">
-        <v>0.5362627119529669</v>
+        <v>0.0008182641230851896</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>123.149000029866</v>
+        <v>0.008704999999999999</v>
       </c>
       <c r="N3">
-        <v>123.149000029866</v>
+        <v>0.026115</v>
       </c>
       <c r="O3">
-        <v>0.4637372880470331</v>
+        <v>3.156169376335366E-05</v>
       </c>
       <c r="P3">
-        <v>0.4637372880470331</v>
+        <v>3.157460666418883E-05</v>
       </c>
       <c r="Q3">
-        <v>17537.4869817859</v>
+        <v>0.0029456718925</v>
       </c>
       <c r="R3">
-        <v>17537.4869817859</v>
+        <v>0.017674031355</v>
       </c>
       <c r="S3">
-        <v>0.2486850157218161</v>
+        <v>3.872285974209572E-08</v>
       </c>
       <c r="T3">
-        <v>0.2486850157218161</v>
+        <v>2.583636783383226E-08</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>123.149000029866</v>
+        <v>0.3383885</v>
       </c>
       <c r="H4">
-        <v>123.149000029866</v>
+        <v>0.676777</v>
       </c>
       <c r="I4">
-        <v>0.4637372880470331</v>
+        <v>0.001226894222865089</v>
       </c>
       <c r="J4">
-        <v>0.4637372880470331</v>
+        <v>0.0008182641230851896</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>142.408683607116</v>
+        <v>148.1417186666667</v>
       </c>
       <c r="N4">
-        <v>142.408683607116</v>
+        <v>444.425156</v>
       </c>
       <c r="O4">
-        <v>0.5362627119529669</v>
+        <v>0.5371170084014045</v>
       </c>
       <c r="P4">
-        <v>0.5362627119529669</v>
+        <v>0.5373367601903413</v>
       </c>
       <c r="Q4">
-        <v>17537.4869817859</v>
+        <v>50.12945396703533</v>
       </c>
       <c r="R4">
-        <v>17537.4869817859</v>
+        <v>300.776723802212</v>
       </c>
       <c r="S4">
-        <v>0.2486850157218161</v>
+        <v>0.0006589857546102627</v>
       </c>
       <c r="T4">
-        <v>0.2486850157218161</v>
+        <v>0.0004396833928785864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.3383885</v>
+      </c>
+      <c r="H5">
+        <v>0.676777</v>
+      </c>
+      <c r="I5">
+        <v>0.001226894222865089</v>
+      </c>
+      <c r="J5">
+        <v>0.0008182641230851896</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>126.7558796666667</v>
+      </c>
+      <c r="N5">
+        <v>380.267639</v>
+      </c>
+      <c r="O5">
+        <v>0.459578432710378</v>
+      </c>
+      <c r="P5">
+        <v>0.4597664609819933</v>
+      </c>
+      <c r="Q5">
+        <v>42.89273198658383</v>
+      </c>
+      <c r="R5">
+        <v>257.356391919503</v>
+      </c>
+      <c r="S5">
+        <v>0.0005638541240457549</v>
+      </c>
+      <c r="T5">
+        <v>0.0003762104000194117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.3383885</v>
+      </c>
+      <c r="H6">
+        <v>0.676777</v>
+      </c>
+      <c r="I6">
+        <v>0.001226894222865089</v>
+      </c>
+      <c r="J6">
+        <v>0.0008182641230851896</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.5643336666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.693001</v>
+      </c>
+      <c r="O6">
+        <v>0.002046102971589183</v>
+      </c>
+      <c r="P6">
+        <v>0.002046940097916077</v>
+      </c>
+      <c r="Q6">
+        <v>0.1909640229628333</v>
+      </c>
+      <c r="R6">
+        <v>1.145784137777</v>
+      </c>
+      <c r="S6">
+        <v>2.51035191522986E-06</v>
+      </c>
+      <c r="T6">
+        <v>1.674937644229211E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.026115</v>
+      </c>
+      <c r="I7">
+        <v>3.156169376335366E-05</v>
+      </c>
+      <c r="J7">
+        <v>3.157460666418883E-05</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.3383885</v>
+      </c>
+      <c r="N7">
+        <v>0.676777</v>
+      </c>
+      <c r="O7">
+        <v>0.001226894222865089</v>
+      </c>
+      <c r="P7">
+        <v>0.0008182641230851896</v>
+      </c>
+      <c r="Q7">
+        <v>0.0029456718925</v>
+      </c>
+      <c r="R7">
+        <v>0.017674031355</v>
+      </c>
+      <c r="S7">
+        <v>3.872285974209572E-08</v>
+      </c>
+      <c r="T7">
+        <v>2.583636783383226E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.026115</v>
+      </c>
+      <c r="I8">
+        <v>3.156169376335366E-05</v>
+      </c>
+      <c r="J8">
+        <v>3.157460666418883E-05</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.026115</v>
+      </c>
+      <c r="O8">
+        <v>3.156169376335366E-05</v>
+      </c>
+      <c r="P8">
+        <v>3.157460666418883E-05</v>
+      </c>
+      <c r="Q8">
+        <v>7.577702499999998E-05</v>
+      </c>
+      <c r="R8">
+        <v>0.000681993225</v>
+      </c>
+      <c r="S8">
+        <v>9.961405132117174E-10</v>
+      </c>
+      <c r="T8">
+        <v>9.96955785998238E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.026115</v>
+      </c>
+      <c r="I9">
+        <v>3.156169376335366E-05</v>
+      </c>
+      <c r="J9">
+        <v>3.157460666418883E-05</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>148.1417186666667</v>
+      </c>
+      <c r="N9">
+        <v>444.425156</v>
+      </c>
+      <c r="O9">
+        <v>0.5371170084014045</v>
+      </c>
+      <c r="P9">
+        <v>0.5373367601903413</v>
+      </c>
+      <c r="Q9">
+        <v>1.289573660993333</v>
+      </c>
+      <c r="R9">
+        <v>11.60616294894</v>
+      </c>
+      <c r="S9">
+        <v>1.695232253425379E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.696619684921959E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.026115</v>
+      </c>
+      <c r="I10">
+        <v>3.156169376335366E-05</v>
+      </c>
+      <c r="J10">
+        <v>3.157460666418883E-05</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>126.7558796666667</v>
+      </c>
+      <c r="N10">
+        <v>380.267639</v>
+      </c>
+      <c r="O10">
+        <v>0.459578432710378</v>
+      </c>
+      <c r="P10">
+        <v>0.4597664609819933</v>
+      </c>
+      <c r="Q10">
+        <v>1.103409932498333</v>
+      </c>
+      <c r="R10">
+        <v>9.930689392485</v>
+      </c>
+      <c r="S10">
+        <v>1.450507375344699E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.451694516289256E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.026115</v>
+      </c>
+      <c r="I11">
+        <v>3.156169376335366E-05</v>
+      </c>
+      <c r="J11">
+        <v>3.157460666418883E-05</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.5643336666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.693001</v>
+      </c>
+      <c r="O11">
+        <v>0.002046102971589183</v>
+      </c>
+      <c r="P11">
+        <v>0.002046940097916077</v>
+      </c>
+      <c r="Q11">
+        <v>0.004912524568333332</v>
+      </c>
+      <c r="R11">
+        <v>0.044212721115</v>
+      </c>
+      <c r="S11">
+        <v>6.457847539758571E-08</v>
+      </c>
+      <c r="T11">
+        <v>6.463132845685632E-08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>148.1417186666667</v>
+      </c>
+      <c r="H12">
+        <v>444.425156</v>
+      </c>
+      <c r="I12">
+        <v>0.5371170084014045</v>
+      </c>
+      <c r="J12">
+        <v>0.5373367601903413</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.3383885</v>
+      </c>
+      <c r="N12">
+        <v>0.676777</v>
+      </c>
+      <c r="O12">
+        <v>0.001226894222865089</v>
+      </c>
+      <c r="P12">
+        <v>0.0008182641230851896</v>
+      </c>
+      <c r="Q12">
+        <v>50.12945396703533</v>
+      </c>
+      <c r="R12">
+        <v>300.776723802212</v>
+      </c>
+      <c r="S12">
+        <v>0.0006589857546102627</v>
+      </c>
+      <c r="T12">
+        <v>0.0004396833928785864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>123.149000029866</v>
-      </c>
-      <c r="H5">
-        <v>123.149000029866</v>
-      </c>
-      <c r="I5">
-        <v>0.4637372880470331</v>
-      </c>
-      <c r="J5">
-        <v>0.4637372880470331</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>123.149000029866</v>
-      </c>
-      <c r="N5">
-        <v>123.149000029866</v>
-      </c>
-      <c r="O5">
-        <v>0.4637372880470331</v>
-      </c>
-      <c r="P5">
-        <v>0.4637372880470331</v>
-      </c>
-      <c r="Q5">
-        <v>15165.67620835594</v>
-      </c>
-      <c r="R5">
-        <v>15165.67620835594</v>
-      </c>
-      <c r="S5">
-        <v>0.2150522723252169</v>
-      </c>
-      <c r="T5">
-        <v>0.2150522723252169</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>148.1417186666667</v>
+      </c>
+      <c r="H13">
+        <v>444.425156</v>
+      </c>
+      <c r="I13">
+        <v>0.5371170084014045</v>
+      </c>
+      <c r="J13">
+        <v>0.5373367601903413</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.026115</v>
+      </c>
+      <c r="O13">
+        <v>3.156169376335366E-05</v>
+      </c>
+      <c r="P13">
+        <v>3.157460666418883E-05</v>
+      </c>
+      <c r="Q13">
+        <v>1.289573660993333</v>
+      </c>
+      <c r="R13">
+        <v>11.60616294894</v>
+      </c>
+      <c r="S13">
+        <v>1.695232253425379E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.696619684921959E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>148.1417186666667</v>
+      </c>
+      <c r="H14">
+        <v>444.425156</v>
+      </c>
+      <c r="I14">
+        <v>0.5371170084014045</v>
+      </c>
+      <c r="J14">
+        <v>0.5373367601903413</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>148.1417186666667</v>
+      </c>
+      <c r="N14">
+        <v>444.425156</v>
+      </c>
+      <c r="O14">
+        <v>0.5371170084014045</v>
+      </c>
+      <c r="P14">
+        <v>0.5373367601903413</v>
+      </c>
+      <c r="Q14">
+        <v>21945.96880951382</v>
+      </c>
+      <c r="R14">
+        <v>197513.7192856244</v>
+      </c>
+      <c r="S14">
+        <v>0.2884946807140745</v>
+      </c>
+      <c r="T14">
+        <v>0.2887307938518523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>148.1417186666667</v>
+      </c>
+      <c r="H15">
+        <v>444.425156</v>
+      </c>
+      <c r="I15">
+        <v>0.5371170084014045</v>
+      </c>
+      <c r="J15">
+        <v>0.5373367601903413</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>126.7558796666667</v>
+      </c>
+      <c r="N15">
+        <v>380.267639</v>
+      </c>
+      <c r="O15">
+        <v>0.459578432710378</v>
+      </c>
+      <c r="P15">
+        <v>0.4597664609819933</v>
+      </c>
+      <c r="Q15">
+        <v>18777.83386492519</v>
+      </c>
+      <c r="R15">
+        <v>169000.5047843267</v>
+      </c>
+      <c r="S15">
+        <v>0.2468473929032044</v>
+      </c>
+      <c r="T15">
+        <v>0.2470494205882432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>148.1417186666667</v>
+      </c>
+      <c r="H16">
+        <v>444.425156</v>
+      </c>
+      <c r="I16">
+        <v>0.5371170084014045</v>
+      </c>
+      <c r="J16">
+        <v>0.5373367601903413</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.5643336666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.693001</v>
+      </c>
+      <c r="O16">
+        <v>0.002046102971589183</v>
+      </c>
+      <c r="P16">
+        <v>0.002046940097916077</v>
+      </c>
+      <c r="Q16">
+        <v>83.60135928146177</v>
+      </c>
+      <c r="R16">
+        <v>752.412233533156</v>
+      </c>
+      <c r="S16">
+        <v>0.001098996706981206</v>
+      </c>
+      <c r="T16">
+        <v>0.001099896160517925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>126.7558796666667</v>
+      </c>
+      <c r="H17">
+        <v>380.267639</v>
+      </c>
+      <c r="I17">
+        <v>0.459578432710378</v>
+      </c>
+      <c r="J17">
+        <v>0.4597664609819933</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.3383885</v>
+      </c>
+      <c r="N17">
+        <v>0.676777</v>
+      </c>
+      <c r="O17">
+        <v>0.001226894222865089</v>
+      </c>
+      <c r="P17">
+        <v>0.0008182641230851896</v>
+      </c>
+      <c r="Q17">
+        <v>42.89273198658383</v>
+      </c>
+      <c r="R17">
+        <v>257.356391919503</v>
+      </c>
+      <c r="S17">
+        <v>0.0005638541240457549</v>
+      </c>
+      <c r="T17">
+        <v>0.0003762104000194117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>126.7558796666667</v>
+      </c>
+      <c r="H18">
+        <v>380.267639</v>
+      </c>
+      <c r="I18">
+        <v>0.459578432710378</v>
+      </c>
+      <c r="J18">
+        <v>0.4597664609819933</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.026115</v>
+      </c>
+      <c r="O18">
+        <v>3.156169376335366E-05</v>
+      </c>
+      <c r="P18">
+        <v>3.157460666418883E-05</v>
+      </c>
+      <c r="Q18">
+        <v>1.103409932498333</v>
+      </c>
+      <c r="R18">
+        <v>9.930689392485</v>
+      </c>
+      <c r="S18">
+        <v>1.450507375344699E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.451694516289256E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>126.7558796666667</v>
+      </c>
+      <c r="H19">
+        <v>380.267639</v>
+      </c>
+      <c r="I19">
+        <v>0.459578432710378</v>
+      </c>
+      <c r="J19">
+        <v>0.4597664609819933</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>148.1417186666667</v>
+      </c>
+      <c r="N19">
+        <v>444.425156</v>
+      </c>
+      <c r="O19">
+        <v>0.5371170084014045</v>
+      </c>
+      <c r="P19">
+        <v>0.5373367601903413</v>
+      </c>
+      <c r="Q19">
+        <v>18777.83386492519</v>
+      </c>
+      <c r="R19">
+        <v>169000.5047843267</v>
+      </c>
+      <c r="S19">
+        <v>0.2468473929032044</v>
+      </c>
+      <c r="T19">
+        <v>0.2470494205882432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>126.7558796666667</v>
+      </c>
+      <c r="H20">
+        <v>380.267639</v>
+      </c>
+      <c r="I20">
+        <v>0.459578432710378</v>
+      </c>
+      <c r="J20">
+        <v>0.4597664609819933</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>126.7558796666667</v>
+      </c>
+      <c r="N20">
+        <v>380.267639</v>
+      </c>
+      <c r="O20">
+        <v>0.459578432710378</v>
+      </c>
+      <c r="P20">
+        <v>0.4597664609819933</v>
+      </c>
+      <c r="Q20">
+        <v>16067.05303007048</v>
+      </c>
+      <c r="R20">
+        <v>144603.4772706344</v>
+      </c>
+      <c r="S20">
+        <v>0.2112123358125275</v>
+      </c>
+      <c r="T20">
+        <v>0.2113851986439067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>126.7558796666667</v>
+      </c>
+      <c r="H21">
+        <v>380.267639</v>
+      </c>
+      <c r="I21">
+        <v>0.459578432710378</v>
+      </c>
+      <c r="J21">
+        <v>0.4597664609819933</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.5643336666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.693001</v>
+      </c>
+      <c r="O21">
+        <v>0.002046102971589183</v>
+      </c>
+      <c r="P21">
+        <v>0.002046940097916077</v>
+      </c>
+      <c r="Q21">
+        <v>71.53261034384877</v>
+      </c>
+      <c r="R21">
+        <v>643.7934930946391</v>
+      </c>
+      <c r="S21">
+        <v>0.0009403447968470038</v>
+      </c>
+      <c r="T21">
+        <v>0.0009411144046610096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.5643336666666666</v>
+      </c>
+      <c r="H22">
+        <v>1.693001</v>
+      </c>
+      <c r="I22">
+        <v>0.002046102971589183</v>
+      </c>
+      <c r="J22">
+        <v>0.002046940097916077</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.3383885</v>
+      </c>
+      <c r="N22">
+        <v>0.676777</v>
+      </c>
+      <c r="O22">
+        <v>0.001226894222865089</v>
+      </c>
+      <c r="P22">
+        <v>0.0008182641230851896</v>
+      </c>
+      <c r="Q22">
+        <v>0.1909640229628333</v>
+      </c>
+      <c r="R22">
+        <v>1.145784137777</v>
+      </c>
+      <c r="S22">
+        <v>2.51035191522986E-06</v>
+      </c>
+      <c r="T22">
+        <v>1.674937644229211E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.5643336666666666</v>
+      </c>
+      <c r="H23">
+        <v>1.693001</v>
+      </c>
+      <c r="I23">
+        <v>0.002046102971589183</v>
+      </c>
+      <c r="J23">
+        <v>0.002046940097916077</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.026115</v>
+      </c>
+      <c r="O23">
+        <v>3.156169376335366E-05</v>
+      </c>
+      <c r="P23">
+        <v>3.157460666418883E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.004912524568333332</v>
+      </c>
+      <c r="R23">
+        <v>0.044212721115</v>
+      </c>
+      <c r="S23">
+        <v>6.457847539758571E-08</v>
+      </c>
+      <c r="T23">
+        <v>6.463132845685632E-08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.5643336666666666</v>
+      </c>
+      <c r="H24">
+        <v>1.693001</v>
+      </c>
+      <c r="I24">
+        <v>0.002046102971589183</v>
+      </c>
+      <c r="J24">
+        <v>0.002046940097916077</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>148.1417186666667</v>
+      </c>
+      <c r="N24">
+        <v>444.425156</v>
+      </c>
+      <c r="O24">
+        <v>0.5371170084014045</v>
+      </c>
+      <c r="P24">
+        <v>0.5373367601903413</v>
+      </c>
+      <c r="Q24">
+        <v>83.60135928146177</v>
+      </c>
+      <c r="R24">
+        <v>752.412233533156</v>
+      </c>
+      <c r="S24">
+        <v>0.001098996706981206</v>
+      </c>
+      <c r="T24">
+        <v>0.001099896160517925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.5643336666666666</v>
+      </c>
+      <c r="H25">
+        <v>1.693001</v>
+      </c>
+      <c r="I25">
+        <v>0.002046102971589183</v>
+      </c>
+      <c r="J25">
+        <v>0.002046940097916077</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>126.7558796666667</v>
+      </c>
+      <c r="N25">
+        <v>380.267639</v>
+      </c>
+      <c r="O25">
+        <v>0.459578432710378</v>
+      </c>
+      <c r="P25">
+        <v>0.4597664609819933</v>
+      </c>
+      <c r="Q25">
+        <v>71.53261034384877</v>
+      </c>
+      <c r="R25">
+        <v>643.7934930946391</v>
+      </c>
+      <c r="S25">
+        <v>0.0009403447968470038</v>
+      </c>
+      <c r="T25">
+        <v>0.0009411144046610096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.5643336666666666</v>
+      </c>
+      <c r="H26">
+        <v>1.693001</v>
+      </c>
+      <c r="I26">
+        <v>0.002046102971589183</v>
+      </c>
+      <c r="J26">
+        <v>0.002046940097916077</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.5643336666666666</v>
+      </c>
+      <c r="N26">
+        <v>1.693001</v>
+      </c>
+      <c r="O26">
+        <v>0.002046102971589183</v>
+      </c>
+      <c r="P26">
+        <v>0.002046940097916077</v>
+      </c>
+      <c r="Q26">
+        <v>0.3184724873334444</v>
+      </c>
+      <c r="R26">
+        <v>2.866252386001</v>
+      </c>
+      <c r="S26">
+        <v>4.186537370346085E-06</v>
+      </c>
+      <c r="T26">
+        <v>4.18996376445668E-06</v>
       </c>
     </row>
   </sheetData>
